--- a/output/bivariate/children/excl_bf_bivariate_diff.xlsx
+++ b/output/bivariate/children/excl_bf_bivariate_diff.xlsx
@@ -1,155 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a3di2022-my.sharepoint.com/personal/aaron_a3di2022_onmicrosoft_com/Documents/Alive &amp; Thrive/3_Country_II/output/bivariate/children/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_37F13DB8630BB324D167BB901578FA234FB6A7C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2FBD6E-A451-45AF-841D-3515A8538CA1}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sex_ch_weighted" sheetId="1" r:id="rId1"/>
-    <sheet name="residence_weighted" sheetId="2" r:id="rId2"/>
-    <sheet name="region_weighted" sheetId="3" r:id="rId3"/>
-    <sheet name="mother_edu_biv_weighted" sheetId="4" r:id="rId4"/>
-    <sheet name="wealth_q_weighted" sheetId="5" r:id="rId5"/>
-    <sheet name="eth_hoh_biv_weighted" sheetId="6" r:id="rId6"/>
-    <sheet name="elderly_hoh_weighted" sheetId="7" r:id="rId7"/>
-    <sheet name="sex_hoh_weighted" sheetId="8" r:id="rId8"/>
+    <sheet name="sex_ch_weighted" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="residence_weighted" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="region_weighted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mother_edu_biv_weighted" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="wealth_q_weighted" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="eth_hoh_biv_weighted" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="elderly_hoh_weighted" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex_hoh_weighted" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>sex_ch</t>
-  </si>
-  <si>
-    <t>CH Sex: Female</t>
-  </si>
-  <si>
-    <t>CH Sex: Male</t>
-  </si>
-  <si>
-    <t>residence</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>mother_edu_biv</t>
-  </si>
-  <si>
-    <t>None_Primary</t>
-  </si>
-  <si>
-    <t>Secondary_Higher</t>
-  </si>
-  <si>
-    <t>wealth_q</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>Poorest</t>
-  </si>
-  <si>
-    <t>Rich</t>
-  </si>
-  <si>
-    <t>Richest</t>
-  </si>
-  <si>
-    <t>eth_hoh_biv</t>
-  </si>
-  <si>
-    <t>Lao_Tai</t>
-  </si>
-  <si>
-    <t>Non-Lao_Tai</t>
-  </si>
-  <si>
-    <t>elderly_hoh</t>
-  </si>
-  <si>
-    <t>Elderly HoH: NO</t>
-  </si>
-  <si>
-    <t>Elderly HoH: YES</t>
-  </si>
-  <si>
-    <t>sex_hoh</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -164,44 +53,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -489,89 +427,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sex_ch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Female</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>22.9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>26.4</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>42</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>46.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CH Sex: Male</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>22.7</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26.9</v>
       </c>
-      <c r="D3">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E3" t="n">
         <v>43.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <f>B2-B3</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000028</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999957</v>
-      </c>
-      <c r="F4">
-        <f>E4-B4</f>
-        <v>2.4999999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -580,63 +503,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residence</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>25.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>27.7</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>41</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>45.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>11.7</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>21.4</v>
       </c>
-      <c r="D3">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E3" t="n">
         <v>42.3</v>
       </c>
     </row>
@@ -646,78 +579,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>22.2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>21.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>32.9</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>32.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C3" t="n">
         <v>44.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>60.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>62.9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>7.9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>29.7</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>43.6</v>
       </c>
     </row>
@@ -727,86 +674,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>mother_edu_biv</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>None_Primary</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>23.7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>26.6</v>
       </c>
-      <c r="D2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E2" t="n">
         <v>46.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Secondary_Higher</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C3" t="n">
         <v>26.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>42.8</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>43.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <f>B2-B3</f>
-        <v>6.0999999999999979</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
-        <v>-9.9999999999997868E-2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000028</v>
-      </c>
-      <c r="F4">
-        <f>E4-B4</f>
-        <v>-3.399999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -815,137 +750,131 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>wealth_q</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C2" t="n">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>41.8</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>46.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C3" t="n">
         <v>29.6</v>
       </c>
-      <c r="D3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E3" t="n">
         <v>50.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Poorest</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>28.1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>30.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>46.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>53.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>17.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>16.7</v>
       </c>
-      <c r="D5">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E5" t="n">
         <v>38.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Richest</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>27.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>34.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>29.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
-        <f>B4-B6</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:E7" si="0">C4-C6</f>
-        <v>3.3999999999999986</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>23.999999999999996</v>
-      </c>
-      <c r="F7" s="2">
-        <f>E7-B7</f>
-        <v>6.899999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -954,79 +883,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>eth_hoh_biv</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Lao_Tai</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>12.9</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
         <v>33</v>
       </c>
-      <c r="E2">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D3">
+      <c r="E2" t="n">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Non-Lao_Tai</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D3" t="n">
         <v>49.6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>56.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <f>B3-B2</f>
-        <v>21.300000000000004</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="C4:E4" si="0">D3-D2</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>22.1</v>
-      </c>
-      <c r="F4">
-        <f>E4-B4</f>
-        <v>0.79999999999999716</v>
       </c>
     </row>
   </sheetData>
@@ -1035,89 +957,74 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>elderly_hoh</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: NO</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>23.2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>27.2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>41.8</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>44.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Elderly HoH: YES</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C3" t="n">
         <v>22.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>34.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>47.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <f>B3-B2</f>
-        <v>-2.8000000000000007</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:E4" si="0">C3-C2</f>
-        <v>-4.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-7.6999999999999957</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="F4">
-        <f>E4-B4</f>
-        <v>5.9000000000000021</v>
       </c>
     </row>
   </sheetData>
@@ -1126,86 +1033,74 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sex_hoh</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>14.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>30.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>24.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>32.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>23.4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>42.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>46.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <f>B2-B3</f>
-        <v>-8.5999999999999979</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
-        <v>4.5999999999999979</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-17.700000000000003</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>-14.100000000000001</v>
-      </c>
-      <c r="F4">
-        <f>E4-B4</f>
-        <v>-5.5000000000000036</v>
       </c>
     </row>
   </sheetData>
